--- a/caso2rubrica-20221(1).xlsx
+++ b/caso2rubrica-20221(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandrarueda/ArchivosNuevos/IC-virtual/2021-1/caso2-def/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianoliveros/Desktop/6. Sexto Semestre/Infra-Comp ISIS-2203/Casos/Caso_2_ad.plata_je.oliverosf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC82F8F-E50B-BA49-BFD1-7EBA481400D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D2F96-E6EF-6C4F-8DEA-3CE486E7A0F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="500" windowWidth="25700" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,12 +267,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,13 +305,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +400,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -693,14 +701,14 @@
   </sheetPr>
   <dimension ref="A1:AMK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="162" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="1" bestFit="1" customWidth="1"/>
@@ -713,123 +721,123 @@
       </c>
     </row>
     <row r="2" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
       <c r="AMK3"/>
     </row>
     <row r="4" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
       <c r="AMK4"/>
     </row>
     <row r="5" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="AMK5"/>
     </row>
     <row r="6" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
       <c r="AMK10"/>
     </row>
     <row r="11" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="AMK11"/>
     </row>
     <row r="12" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
@@ -870,7 +878,7 @@
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -878,7 +886,7 @@
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -886,7 +894,7 @@
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -894,7 +902,7 @@
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -910,7 +918,7 @@
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -918,7 +926,7 @@
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -931,7 +939,7 @@
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -939,7 +947,7 @@
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -947,7 +955,7 @@
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -971,7 +979,7 @@
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -979,25 +987,25 @@
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1005,7 +1013,7 @@
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1013,7 +1021,7 @@
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1021,7 +1029,7 @@
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1029,13 +1037,13 @@
       <c r="A42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -1046,16 +1054,16 @@
       <c r="A45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="8"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1063,7 +1071,7 @@
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1079,7 +1087,7 @@
       <c r="A50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1087,7 +1095,7 @@
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1103,7 +1111,7 @@
       <c r="A53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>42</v>
       </c>
     </row>
